--- a/Graphic/pinout.xlsx
+++ b/Graphic/pinout.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!GLOWNY\!PRACA\PSLabs\PRODUKTY\Wlasne\19_maxim_extens\06_shiftr_led\Github\CMM2-ExpansionCard-ShiftRegisterLed\Graphic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6C6A31-EB98-451D-8C2E-072910B55A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6B915-377E-40E3-BB57-DACED3A934E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="examp_1" sheetId="2" r:id="rId2"/>
+    <sheet name="examp_2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="26">
   <si>
     <t>x9</t>
   </si>
@@ -101,6 +102,9 @@
   </si>
   <si>
     <t>GND</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
 </sst>
 </file>
@@ -200,6 +204,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244927</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>285751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217717</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>176896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Łącznik: zakrzywiony 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549F5597-4DB4-4364-B58C-21CF670B1CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4122964" y="4041321"/>
+          <a:ext cx="1524002" cy="870862"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244933</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>244930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Łącznik: zakrzywiony 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5EEA21F-3F79-46BB-9B22-F2DFB3A61960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3925664" y="6783163"/>
+          <a:ext cx="1496783" cy="1347104"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>231320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Łącznik: zakrzywiony 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A620A9A-7573-4F92-B6EC-7EF4A5B8B8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3578679" y="9715500"/>
+          <a:ext cx="1755320" cy="1510393"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8092D87-C5E6-4E9E-BF84-CBE5BF63B604}">
   <dimension ref="B2:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:AH8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>8</v>
@@ -1153,4 +1333,1262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7EC29-73BC-44F3-9827-F460E4E7E8C4}">
+  <dimension ref="B2:AH35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U33" sqref="U33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="48" width="6.7109375" style="3" customWidth="1"/>
+    <col min="49" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>5</v>
+      </c>
+      <c r="V7" s="2">
+        <v>8</v>
+      </c>
+      <c r="W7" s="2">
+        <v>11</v>
+      </c>
+      <c r="X7" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="5">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2">
+        <v>38</v>
+      </c>
+      <c r="N8" s="5">
+        <v>23</v>
+      </c>
+      <c r="O8" s="2">
+        <v>40</v>
+      </c>
+      <c r="P8" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>33</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>3</v>
+      </c>
+      <c r="V8" s="2">
+        <v>7</v>
+      </c>
+      <c r="W8" s="2">
+        <v>10</v>
+      </c>
+      <c r="X8" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>33</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2">
+        <v>5</v>
+      </c>
+      <c r="V16" s="2">
+        <v>8</v>
+      </c>
+      <c r="W16" s="2">
+        <v>11</v>
+      </c>
+      <c r="X16" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="6">
+        <v>19</v>
+      </c>
+      <c r="M17" s="2">
+        <v>38</v>
+      </c>
+      <c r="N17" s="5">
+        <v>23</v>
+      </c>
+      <c r="O17" s="2">
+        <v>40</v>
+      </c>
+      <c r="P17" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>33</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2">
+        <v>3</v>
+      </c>
+      <c r="V17" s="2">
+        <v>7</v>
+      </c>
+      <c r="W17" s="2">
+        <v>10</v>
+      </c>
+      <c r="X17" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>33</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2">
+        <v>5</v>
+      </c>
+      <c r="V25" s="2">
+        <v>8</v>
+      </c>
+      <c r="W25" s="2">
+        <v>11</v>
+      </c>
+      <c r="X25" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH25" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="6">
+        <v>19</v>
+      </c>
+      <c r="M26" s="2">
+        <v>38</v>
+      </c>
+      <c r="N26" s="5">
+        <v>23</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+      <c r="P26" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>33</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2">
+        <v>3</v>
+      </c>
+      <c r="V26" s="2">
+        <v>7</v>
+      </c>
+      <c r="W26" s="2">
+        <v>10</v>
+      </c>
+      <c r="X26" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>33</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH26" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" s="4" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2">
+        <v>5</v>
+      </c>
+      <c r="V34" s="2">
+        <v>8</v>
+      </c>
+      <c r="W34" s="2">
+        <v>11</v>
+      </c>
+      <c r="X34" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>16</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>24</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>32</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>37</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="6">
+        <v>19</v>
+      </c>
+      <c r="M35" s="2">
+        <v>38</v>
+      </c>
+      <c r="N35" s="5">
+        <v>23</v>
+      </c>
+      <c r="O35" s="2">
+        <v>40</v>
+      </c>
+      <c r="P35" s="5">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>33</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2">
+        <v>3</v>
+      </c>
+      <c r="V35" s="2">
+        <v>7</v>
+      </c>
+      <c r="W35" s="2">
+        <v>10</v>
+      </c>
+      <c r="X35" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>15</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>21</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>28</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>33</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Graphic/pinout.xlsx
+++ b/Graphic/pinout.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!GLOWNY\!PRACA\PSLabs\PRODUKTY\Wlasne\19_maxim_extens\06_shiftr_led\Github\CMM2-ExpansionCard-ShiftRegisterLed\Graphic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6B915-377E-40E3-BB57-DACED3A934E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA14F39-D733-4C1A-B119-CF8B42C22BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
+    <workbookView xWindow="4860" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="examp_1" sheetId="2" r:id="rId2"/>
     <sheet name="examp_2" sheetId="4" r:id="rId3"/>
+    <sheet name="BIG_M" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="30">
   <si>
     <t>x9</t>
   </si>
@@ -106,6 +107,18 @@
   <si>
     <t>x2</t>
   </si>
+  <si>
+    <t>CARD 1</t>
+  </si>
+  <si>
+    <t>CARD 2</t>
+  </si>
+  <si>
+    <t>CARD 3</t>
+  </si>
+  <si>
+    <t>CARD 4</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,6 +206,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7EC29-73BC-44F3-9827-F460E4E7E8C4}">
   <dimension ref="B2:AH35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
@@ -2591,4 +2619,509 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CA857A-9A5B-402D-BE3D-B0B9219DE496}">
+  <dimension ref="B2:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="4" max="11" width="4.7109375" style="7" customWidth="1"/>
+    <col min="12" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>8</v>
+      </c>
+      <c r="L2" s="7">
+        <v>9</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" s="7">
+        <v>11</v>
+      </c>
+      <c r="O2" s="7">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+    </row>
+    <row r="4" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>1</v>
+      </c>
+      <c r="P4" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1</v>
+      </c>
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" t="str">
+        <f>D11&amp;E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11&amp;P11&amp;Q11&amp;R11</f>
+        <v>111011111011111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" t="str">
+        <f t="shared" ref="T12:T14" si="0">D12&amp;E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12&amp;P12&amp;Q12&amp;R12</f>
+        <v>100010101010101</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>100000101010101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>111000101010101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Graphic/pinout.xlsx
+++ b/Graphic/pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!GLOWNY\!PRACA\PSLabs\PRODUKTY\Wlasne\19_maxim_extens\06_shiftr_led\Github\CMM2-ExpansionCard-ShiftRegisterLed\Graphic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA14F39-D733-4C1A-B119-CF8B42C22BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CD590D-CF3D-456C-8346-206D0BF3827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1575" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
+    <workbookView xWindow="3735" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{23F7BCC2-FF8C-4CB6-BEFC-FF7180BC88AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="33">
   <si>
     <t>x9</t>
   </si>
@@ -118,13 +118,22 @@
   </si>
   <si>
     <t>CARD 4</t>
+  </si>
+  <si>
+    <t>BIN value</t>
+  </si>
+  <si>
+    <t>Card no.</t>
+  </si>
+  <si>
+    <t>LED no.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,8 +151,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,11 +209,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +253,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2623,71 +2688,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CA857A-9A5B-402D-BE3D-B0B9219DE496}">
-  <dimension ref="B2:T14"/>
+  <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A18" sqref="A2:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="1.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
     <col min="4" max="11" width="4.7109375" style="7" customWidth="1"/>
     <col min="12" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7">
-        <v>3</v>
-      </c>
-      <c r="G2" s="7">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7">
-        <v>5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7">
-        <v>7</v>
-      </c>
-      <c r="K2" s="7">
-        <v>8</v>
-      </c>
-      <c r="L2" s="7">
-        <v>9</v>
-      </c>
-      <c r="M2" s="7">
-        <v>10</v>
-      </c>
-      <c r="N2" s="7">
-        <v>11</v>
-      </c>
-      <c r="O2" s="7">
-        <v>12</v>
-      </c>
-      <c r="P2" s="7">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>14</v>
-      </c>
-      <c r="R2" s="7">
-        <v>15</v>
-      </c>
-      <c r="S2" s="7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="2:21" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -2696,432 +2725,372 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12">
+        <v>5</v>
+      </c>
+      <c r="I12" s="12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="12">
+        <v>7</v>
+      </c>
+      <c r="K12" s="12">
+        <v>8</v>
+      </c>
+      <c r="L12" s="12">
+        <v>9</v>
+      </c>
+      <c r="M12" s="12">
+        <v>10</v>
+      </c>
+      <c r="N12" s="12">
+        <v>11</v>
+      </c>
+      <c r="O12" s="12">
+        <v>12</v>
+      </c>
+      <c r="P12" s="12">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>14</v>
+      </c>
+      <c r="R12" s="12">
+        <v>15</v>
+      </c>
+      <c r="S12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="8">
-        <v>1</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="8">
-        <v>1</v>
-      </c>
-      <c r="P4" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>1</v>
-      </c>
-      <c r="R4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="14">
+        <v>1</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14">
+        <v>1</v>
+      </c>
+      <c r="O14" s="14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>1</v>
+      </c>
+      <c r="R14" s="14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12" t="str">
+        <f>D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14&amp;R14&amp;S14</f>
+        <v>1110111110111110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0</v>
-      </c>
-      <c r="R5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14">
+        <v>1</v>
+      </c>
+      <c r="O15" s="15">
+        <v>0</v>
+      </c>
+      <c r="P15" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="14">
+        <v>1</v>
+      </c>
+      <c r="S15" s="15">
+        <v>0</v>
+      </c>
+      <c r="T15" s="11"/>
+      <c r="U15" s="12" t="str">
+        <f t="shared" ref="U15:U17" si="0">D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15&amp;R15&amp;S15</f>
+        <v>1000101010101010</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="14">
+        <v>1</v>
+      </c>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1</v>
+      </c>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>1000001010101010</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>1</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>1</v>
-      </c>
-      <c r="R11" s="8">
-        <v>1</v>
-      </c>
-      <c r="S11" s="1"/>
-      <c r="T11" t="str">
-        <f>D11&amp;E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11&amp;P11&amp;Q11&amp;R11</f>
-        <v>111011111011111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>1</v>
-      </c>
-      <c r="S12" s="1"/>
-      <c r="T12" t="str">
-        <f t="shared" ref="T12:T14" si="0">D12&amp;E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12&amp;P12&amp;Q12&amp;R12</f>
-        <v>100010101010101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" t="str">
+      <c r="C17" s="1"/>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1</v>
+      </c>
+      <c r="M17" s="15">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14">
+        <v>1</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0</v>
+      </c>
+      <c r="P17" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>0</v>
+      </c>
+      <c r="R17" s="14">
+        <v>1</v>
+      </c>
+      <c r="S17" s="15">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11"/>
+      <c r="U17" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>100000101010101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1</v>
-      </c>
-      <c r="S14" s="1"/>
-      <c r="T14" t="str">
-        <f t="shared" si="0"/>
-        <v>111000101010101</v>
+        <v>1110001010101010</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D11:S11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>